--- a/Final/randomMatch.xlsx
+++ b/Final/randomMatch.xlsx
@@ -5637,16 +5637,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>692</v>
+        <v>1062</v>
       </c>
       <c r="B2" t="n">
-        <v>6632</v>
+        <v>11784</v>
       </c>
       <c r="C2" t="n">
-        <v>4769</v>
+        <v>10257</v>
       </c>
       <c r="D2" t="n">
-        <v>4769</v>
+        <v>10257</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5654,91 +5654,91 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2012-09-22 00:00:00</t>
+          <t>2012-11-04 00:00:00</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1216864</v>
+        <v>1287076</v>
       </c>
       <c r="I2" t="n">
-        <v>8689</v>
+        <v>8551</v>
       </c>
       <c r="J2" t="n">
-        <v>9831</v>
+        <v>10233</v>
       </c>
       <c r="K2" t="n">
-        <v>210114</v>
+        <v>414788</v>
       </c>
       <c r="L2" t="n">
-        <v>26327</v>
+        <v>39423</v>
       </c>
       <c r="M2" t="n">
-        <v>93457</v>
+        <v>37508</v>
       </c>
       <c r="N2" t="n">
-        <v>210451</v>
+        <v>27668</v>
       </c>
       <c r="O2" t="n">
-        <v>113599</v>
+        <v>17836</v>
       </c>
       <c r="P2" t="n">
-        <v>31037</v>
+        <v>24854</v>
       </c>
       <c r="Q2" t="n">
-        <v>210404</v>
+        <v>40656</v>
       </c>
       <c r="R2" t="n">
-        <v>5610</v>
+        <v>39229</v>
       </c>
       <c r="S2" t="n">
-        <v>179415</v>
+        <v>42433</v>
       </c>
       <c r="T2" t="n">
-        <v>32572</v>
+        <v>185867</v>
       </c>
       <c r="U2" t="n">
-        <v>24753</v>
+        <v>42041</v>
       </c>
       <c r="V2" t="n">
-        <v>94306</v>
+        <v>24503</v>
       </c>
       <c r="W2" t="n">
-        <v>251243</v>
+        <v>299411</v>
       </c>
       <c r="X2" t="n">
-        <v>40020</v>
+        <v>30424</v>
       </c>
       <c r="Y2" t="n">
-        <v>157288</v>
+        <v>39419</v>
       </c>
       <c r="Z2" t="n">
-        <v>150869</v>
+        <v>34008</v>
       </c>
       <c r="AA2" t="n">
-        <v>94318</v>
+        <v>40601</v>
       </c>
       <c r="AB2" t="n">
-        <v>32566</v>
+        <v>72518</v>
       </c>
       <c r="AC2" t="n">
-        <v>33128</v>
+        <v>49897</v>
       </c>
       <c r="AD2" t="n">
-        <v>237631</v>
+        <v>46374</v>
       </c>
       <c r="AE2" t="n">
-        <v>210406</v>
+        <v>50449</v>
       </c>
       <c r="AF2" t="n">
-        <v>18734</v>
+        <v>161660</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>&lt;goal&gt;&lt;value&gt;&lt;comment&gt;n&lt;/comment&gt;&lt;stats&gt;&lt;goals&gt;1&lt;/goals&gt;&lt;shoton&gt;1&lt;/shoton&gt;&lt;/stats&gt;&lt;event_incident_typefk&gt;71&lt;/event_incident_typefk&gt;&lt;elapsed&gt;38&lt;/elapsed&gt;&lt;player1&gt;32566&lt;/player1&gt;&lt;sortorder&gt;0&lt;/sortorder&gt;&lt;team&gt;9831&lt;/team&gt;&lt;id&gt;2369540&lt;/id&gt;&lt;n&gt;23&lt;/n&gt;&lt;type&gt;goal&lt;/type&gt;&lt;goal_type&gt;n&lt;/goal_type&gt;&lt;/value&gt;&lt;value&gt;&lt;comment&gt;n&lt;/comment&gt;&lt;stats&gt;&lt;goals&gt;1&lt;/goals&gt;&lt;shoton&gt;1&lt;/shoton&gt;&lt;/stats&gt;&lt;event_incident_typefk&gt;71&lt;/event_incident_typefk&gt;&lt;elapsed&gt;89&lt;/elapsed&gt;&lt;player1&gt;40018&lt;/player1&gt;&lt;sortorder&gt;0&lt;/sortorder&gt;&lt;team&gt;8689&lt;/team&gt;&lt;id&gt;2369625&lt;/id&gt;&lt;n&gt;22&lt;/n&gt;&lt;type&gt;goal&lt;/type&gt;&lt;goal_type&gt;n&lt;/goal_type&gt;&lt;/value&gt;&lt;/goal&gt;</t>
+          <t>&lt;goal&gt;&lt;value&gt;&lt;comment&gt;n&lt;/comment&gt;&lt;stats&gt;&lt;goals&gt;1&lt;/goals&gt;&lt;shoton&gt;1&lt;/shoton&gt;&lt;/stats&gt;&lt;event_incident_typefk&gt;71&lt;/event_incident_typefk&gt;&lt;elapsed&gt;55&lt;/elapsed&gt;&lt;player1&gt;37508&lt;/player1&gt;&lt;sortorder&gt;0&lt;/sortorder&gt;&lt;team&gt;8551&lt;/team&gt;&lt;id&gt;2458622&lt;/id&gt;&lt;n&gt;20&lt;/n&gt;&lt;type&gt;goal&lt;/type&gt;&lt;goal_type&gt;n&lt;/goal_type&gt;&lt;/value&gt;&lt;/goal&gt;</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>&lt;card&gt;&lt;value&gt;&lt;comment&gt;y&lt;/comment&gt;&lt;stats&gt;&lt;ycards&gt;1&lt;/ycards&gt;&lt;/stats&gt;&lt;event_incident_typefk&gt;70&lt;/event_incident_typefk&gt;&lt;elapsed&gt;28&lt;/elapsed&gt;&lt;card_type&gt;y&lt;/card_type&gt;&lt;player1&gt;24753&lt;/player1&gt;&lt;sortorder&gt;0&lt;/sortorder&gt;&lt;team&gt;8689&lt;/team&gt;&lt;n&gt;24&lt;/n&gt;&lt;type&gt;card&lt;/type&gt;&lt;id&gt;2369515&lt;/id&gt;&lt;/value&gt;&lt;value&gt;&lt;comment&gt;y&lt;/comment&gt;&lt;stats&gt;&lt;ycards&gt;1&lt;/ycards&gt;&lt;/stats&gt;&lt;event_incident_typefk&gt;70&lt;/event_incident_typefk&gt;&lt;elapsed&gt;35&lt;/elapsed&gt;&lt;card_type&gt;y&lt;/card_type&gt;&lt;player1&gt;210406&lt;/player1&gt;&lt;sortorder&gt;0&lt;/sortorder&gt;&lt;team&gt;9831&lt;/team&gt;&lt;n&gt;20&lt;/n&gt;&lt;type&gt;card&lt;/type&gt;&lt;id&gt;2369541&lt;/id&gt;&lt;/value&gt;&lt;value&gt;&lt;comment&gt;y&lt;/comment&gt;&lt;stats&gt;&lt;ycards&gt;1&lt;/ycards&gt;&lt;/stats&gt;&lt;event_incident_typefk&gt;70&lt;/event_incident_typefk&gt;&lt;elapsed&gt;45&lt;/elapsed&gt;&lt;card_type&gt;y&lt;/card_type&gt;&lt;player1&gt;210451&lt;/player1&gt;&lt;sortorder&gt;0&lt;/sortorder&gt;&lt;team&gt;8689&lt;/team&gt;&lt;n&gt;19&lt;/n&gt;&lt;type&gt;card&lt;/type&gt;&lt;id&gt;2369574&lt;/id&gt;&lt;/value&gt;&lt;value&gt;&lt;comment&gt;y&lt;/comment&gt;&lt;stats&gt;&lt;ycards&gt;1&lt;/ycards&gt;&lt;/stats&gt;&lt;event_incident_typefk&gt;70&lt;/event_incident_typefk&gt;&lt;elapsed&gt;61&lt;/elapsed&gt;&lt;card_type&gt;y&lt;/card_type&gt;&lt;player1&gt;150869&lt;/player1&gt;&lt;sortorder&gt;0&lt;/sortorder&gt;&lt;team&gt;9831&lt;/team&gt;&lt;n&gt;21&lt;/n&gt;&lt;type&gt;card&lt;/type&gt;&lt;id&gt;2369592&lt;/id&gt;&lt;/value&gt;&lt;value&gt;&lt;comment&gt;r&lt;/comment&gt;&lt;stats&gt;&lt;rcards&gt;1&lt;/rcards&gt;&lt;/stats&gt;&lt;event_incident_typefk&gt;270&lt;/event_incident_typefk&gt;&lt;elapsed&gt;64&lt;/elapsed&gt;&lt;card_type&gt;r&lt;/card_type&gt;&lt;player1&gt;26327&lt;/player1&gt;&lt;sortorder&gt;0&lt;/sortorder&gt;&lt;team&gt;8689&lt;/team&gt;&lt;n&gt;25&lt;/n&gt;&lt;type&gt;card&lt;/type&gt;&lt;id&gt;2369594&lt;/id&gt;&lt;/value&gt;&lt;/card&gt;</t>
+          <t>&lt;card&gt;&lt;value&gt;&lt;comment&gt;y&lt;/comment&gt;&lt;stats&gt;&lt;ycards&gt;1&lt;/ycards&gt;&lt;/stats&gt;&lt;event_incident_typefk&gt;70&lt;/event_incident_typefk&gt;&lt;elapsed&gt;29&lt;/elapsed&gt;&lt;card_type&gt;y&lt;/card_type&gt;&lt;player1&gt;39419&lt;/player1&gt;&lt;sortorder&gt;0&lt;/sortorder&gt;&lt;team&gt;10233&lt;/team&gt;&lt;n&gt;19&lt;/n&gt;&lt;type&gt;card&lt;/type&gt;&lt;id&gt;2458364&lt;/id&gt;&lt;/value&gt;&lt;value&gt;&lt;comment&gt;y&lt;/comment&gt;&lt;stats&gt;&lt;ycards&gt;1&lt;/ycards&gt;&lt;/stats&gt;&lt;event_incident_typefk&gt;70&lt;/event_incident_typefk&gt;&lt;elapsed&gt;77&lt;/elapsed&gt;&lt;card_type&gt;y&lt;/card_type&gt;&lt;player1&gt;34008&lt;/player1&gt;&lt;sortorder&gt;0&lt;/sortorder&gt;&lt;team&gt;10233&lt;/team&gt;&lt;n&gt;21&lt;/n&gt;&lt;type&gt;card&lt;/type&gt;&lt;id&gt;2458731&lt;/id&gt;&lt;/value&gt;&lt;value&gt;&lt;comment&gt;y&lt;/comment&gt;&lt;stats&gt;&lt;ycards&gt;1&lt;/ycards&gt;&lt;/stats&gt;&lt;event_incident_typefk&gt;70&lt;/event_incident_typefk&gt;&lt;elapsed&gt;79&lt;/elapsed&gt;&lt;card_type&gt;y&lt;/card_type&gt;&lt;player1&gt;39423&lt;/player1&gt;&lt;sortorder&gt;0&lt;/sortorder&gt;&lt;team&gt;8551&lt;/team&gt;&lt;n&gt;22&lt;/n&gt;&lt;type&gt;card&lt;/type&gt;&lt;id&gt;2458732&lt;/id&gt;&lt;/value&gt;&lt;value&gt;&lt;comment&gt;y&lt;/comment&gt;&lt;stats&gt;&lt;ycards&gt;1&lt;/ycards&gt;&lt;/stats&gt;&lt;event_incident_typefk&gt;70&lt;/event_incident_typefk&gt;&lt;elapsed&gt;79&lt;/elapsed&gt;&lt;card_type&gt;y&lt;/card_type&gt;&lt;player1&gt;41754&lt;/player1&gt;&lt;sortorder&gt;0&lt;/sortorder&gt;&lt;team&gt;8551&lt;/team&gt;&lt;n&gt;23&lt;/n&gt;&lt;type&gt;card&lt;/type&gt;&lt;id&gt;2458733&lt;/id&gt;&lt;/value&gt;&lt;value&gt;&lt;comment&gt;y&lt;/comment&gt;&lt;stats&gt;&lt;ycards&gt;1&lt;/ycards&gt;&lt;/stats&gt;&lt;event_incident_typefk&gt;70&lt;/event_incident_typefk&gt;&lt;elapsed&gt;85&lt;/elapsed&gt;&lt;card_type&gt;y&lt;/card_type&gt;&lt;player1&gt;40656&lt;/player1&gt;&lt;sortorder&gt;0&lt;/sortorder&gt;&lt;team&gt;8551&lt;/team&gt;&lt;n&gt;24&lt;/n&gt;&lt;type&gt;card&lt;/type&gt;&lt;id&gt;2458743&lt;/id&gt;&lt;/value&gt;&lt;value&gt;&lt;comment&gt;y&lt;/comment&gt;&lt;stats&gt;&lt;ycards&gt;1&lt;/ycards&gt;&lt;/stats&gt;&lt;event_incident_typefk&gt;70&lt;/event_incident_typefk&gt;&lt;elapsed&gt;90&lt;/elapsed&gt;&lt;card_type&gt;y&lt;/card_type&gt;&lt;player1&gt;Unknown player&lt;/player1&gt;&lt;sortorder&gt;0&lt;/sortorder&gt;&lt;team&gt;8551&lt;/team&gt;&lt;n&gt;25&lt;/n&gt;&lt;type&gt;card&lt;/type&gt;&lt;id&gt;2458769&lt;/id&gt;&lt;/value&gt;&lt;/card&gt;</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -5777,13 +5777,13 @@
         </is>
       </c>
       <c r="AO2" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
@@ -5791,16 +5791,16 @@
         </is>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>767</v>
+        <v>1095</v>
       </c>
       <c r="AU2" t="n">
-        <v>217</v>
+        <v>1838</v>
       </c>
       <c r="AV2" t="n">
-        <v>8689</v>
+        <v>8551</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         </is>
       </c>
       <c r="AX2" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="BA2" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         </is>
       </c>
       <c r="BD2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="BF2" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         </is>
       </c>
       <c r="BH2" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         </is>
       </c>
       <c r="BK2" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="BO2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
@@ -5897,13 +5897,13 @@
         </is>
       </c>
       <c r="BS2" t="n">
-        <v>901</v>
+        <v>493</v>
       </c>
       <c r="BT2" t="n">
-        <v>72</v>
+        <v>110556</v>
       </c>
       <c r="BU2" t="n">
-        <v>9831</v>
+        <v>10233</v>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         </is>
       </c>
       <c r="BW2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         </is>
       </c>
       <c r="BZ2" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="CA2" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="CC2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         </is>
       </c>
       <c r="CE2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="CG2" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="CH2" t="inlineStr">
         <is>
@@ -5966,15 +5966,15 @@
         </is>
       </c>
       <c r="CJ2" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="CK2" t="inlineStr">
         <is>
-          <t>Deep</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="CL2" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CM2" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="CN2" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="CO2" t="inlineStr">
         <is>
@@ -6000,13 +6000,13 @@
         </is>
       </c>
       <c r="CR2" t="n">
-        <v>20554</v>
+        <v>63800</v>
       </c>
       <c r="CS2" t="n">
-        <v>200726</v>
+        <v>106795</v>
       </c>
       <c r="CT2" t="n">
-        <v>210114</v>
+        <v>414788</v>
       </c>
       <c r="CU2" t="inlineStr">
         <is>
@@ -6014,14 +6014,14 @@
         </is>
       </c>
       <c r="CV2" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="CW2" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="CX2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="CY2" t="inlineStr">
@@ -6035,85 +6035,85 @@
         </is>
       </c>
       <c r="DA2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DB2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="DC2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="DD2" t="n">
+        <v>35</v>
+      </c>
+      <c r="DE2" t="n">
         <v>16</v>
       </c>
-      <c r="DE2" t="n">
-        <v>8</v>
-      </c>
       <c r="DF2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DG2" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="DH2" t="n">
         <v>18</v>
       </c>
       <c r="DI2" t="n">
+        <v>21</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>47</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>44</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>52</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>54</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>47</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>35</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>68</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>56</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>54</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>11</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>30</v>
+      </c>
+      <c r="DV2" t="n">
         <v>20</v>
       </c>
-      <c r="DJ2" t="n">
-        <v>22</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>45</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>50</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>26</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>25</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>17</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>60</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>34</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>48</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>8</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>50</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>23</v>
-      </c>
       <c r="DW2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DX2" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="DY2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="DZ2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="EA2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="EB2" t="n">
         <v>11</v>
@@ -6122,433 +6122,433 @@
         <v>68</v>
       </c>
       <c r="ED2" t="n">
+        <v>66</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>60</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>68</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>72</v>
+      </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="EI2" t="n">
+        <v>159241</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1289</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>24503</v>
+      </c>
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>2012-02-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="EM2" t="n">
+        <v>82</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>84</v>
+      </c>
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="ER2" t="n">
+        <v>25</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>25</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>25</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>35</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>9</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>25</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>25</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>25</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>32</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>28</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>55</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>49</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>74</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>75</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>43</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>44</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>79</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>50</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>79</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>25</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>40</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>20</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>10</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>44</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>25</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>25</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>25</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>25</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>84</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>81</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>60</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>81</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>86</v>
+      </c>
+      <c r="FY2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="FZ2" t="n">
+        <v>138648</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>170307</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>39423</v>
+      </c>
+      <c r="GC2" t="inlineStr">
+        <is>
+          <t>2012-08-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="GD2" t="n">
+        <v>67</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>70</v>
+      </c>
+      <c r="GF2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="GG2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="GH2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="GI2" t="n">
+        <v>50</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>38</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>65</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>56</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>39</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>42</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>39</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>50</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>50</v>
+      </c>
+      <c r="GS2" t="n">
         <v>64</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="GT2" t="n">
+        <v>66</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>59</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>68</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>58</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>68</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>69</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>55</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>73</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>40</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>71</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>71</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>44</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>58</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>50</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>70</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>70</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>65</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>12</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>13</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>10</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>14</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="HQ2" t="n">
+        <v>114006</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>206601</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>299411</v>
+      </c>
+      <c r="HT2" t="inlineStr">
+        <is>
+          <t>2012-02-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="HU2" t="n">
+        <v>59</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>71</v>
+      </c>
+      <c r="HW2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="HX2" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="HY2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="HZ2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>29</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>45</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>29</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>38</v>
+      </c>
+      <c r="II2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>68</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>67</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>67</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>69</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>62</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IT2" t="n">
         <v>61</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="IU2" t="n">
+        <v>65</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>46</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>45</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IZ2" t="n">
         <v>62</v>
       </c>
-      <c r="EG2" t="n">
-        <v>66</v>
-      </c>
-      <c r="EH2" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="EI2" t="n">
-        <v>87859</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>194198</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>94306</v>
-      </c>
-      <c r="EL2" t="inlineStr">
-        <is>
-          <t>2012-08-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="EM2" t="n">
-        <v>69</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>80</v>
-      </c>
-      <c r="EO2" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="EP2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="EQ2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="ER2" t="n">
-        <v>12</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>8</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>15</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>16</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>8</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>9</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>9</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>19</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>20</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>14</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>52</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>46</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>39</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>33</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>22</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>23</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>54</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>55</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>66</v>
-      </c>
-      <c r="FK2" t="n">
+      <c r="JA2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JB2" t="n">
         <v>7</v>
       </c>
-      <c r="FL2" t="n">
-        <v>30</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>24</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>13</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>19</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>21</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>9</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>10</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>11</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>73</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>71</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>66</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>70</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>73</v>
-      </c>
-      <c r="FY2" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="FZ2" t="n">
-        <v>66724</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>134777</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>26327</v>
-      </c>
-      <c r="GC2" t="inlineStr">
-        <is>
-          <t>2012-02-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="GD2" t="n">
-        <v>73</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>74</v>
-      </c>
-      <c r="GF2" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="GG2" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="GH2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="GI2" t="n">
-        <v>65</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>31</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>76</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>73</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>43</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>43</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>52</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>51</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>61</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>69</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>58</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>54</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>37</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>62</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>56</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>62</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>73</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>56</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>71</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>64</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>74</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>68</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>26</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>67</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>63</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>74</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>77</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>73</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>8</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>9</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>12</v>
-      </c>
-      <c r="HN2" t="n">
+      <c r="JC2" t="n">
         <v>7</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>9</v>
-      </c>
-      <c r="HP2" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="HQ2" t="n">
-        <v>102701</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>202708</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>251243</v>
-      </c>
-      <c r="HT2" t="inlineStr">
-        <is>
-          <t>2012-08-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="HU2" t="n">
-        <v>64</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>73</v>
-      </c>
-      <c r="HW2" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="HX2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="HY2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="HZ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>55</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>51</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>68</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>49</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>60</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>40</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>48</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>58</v>
-      </c>
-      <c r="II2" t="n">
-        <v>64</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>77</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>77</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>60</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>66</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>77</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>52</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>58</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>74</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>65</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>46</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>67</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>64</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>55</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>52</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>53</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>63</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>64</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>64</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>9</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>14</v>
       </c>
       <c r="JD2" t="n">
         <v>11</v>
       </c>
       <c r="JE2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="JF2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="JG2" t="inlineStr">
         <is>
@@ -6556,13 +6556,13 @@
         </is>
       </c>
       <c r="JH2" t="n">
-        <v>98818</v>
+        <v>117266</v>
       </c>
       <c r="JI2" t="n">
-        <v>184082</v>
+        <v>137232</v>
       </c>
       <c r="JJ2" t="n">
-        <v>93457</v>
+        <v>37508</v>
       </c>
       <c r="JK2" t="inlineStr">
         <is>
@@ -6570,431 +6570,431 @@
         </is>
       </c>
       <c r="JL2" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="JM2" t="n">
+        <v>71</v>
+      </c>
+      <c r="JN2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="JO2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="JP2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="JQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>63</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>54</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>34</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>66</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>52</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>91</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KK2" t="n">
         <v>75</v>
-      </c>
-      <c r="JN2" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="JO2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="JP2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="JQ2" t="n">
-        <v>59</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>33</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>77</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>59</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>28</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>45</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>38</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>27</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>47</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>61</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>59</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>59</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>54</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>70</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>48</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>63</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>74</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>90</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>28</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>78</v>
       </c>
       <c r="KL2" t="n">
         <v>74</v>
       </c>
       <c r="KM2" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="KN2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>72</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>72</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>67</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KX2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="KY2" t="n">
+        <v>12359</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>156713</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>30424</v>
+      </c>
+      <c r="LB2" t="inlineStr">
+        <is>
+          <t>2012-02-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="LC2" t="n">
+        <v>76</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="LE2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="LF2" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="LG2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="LH2" t="n">
+        <v>48</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>80</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>68</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>39</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>66</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>64</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>54</v>
+      </c>
+      <c r="LT2" t="n">
         <v>55</v>
       </c>
-      <c r="KO2" t="n">
-        <v>30</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>68</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>75</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>63</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>5</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>11</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>14</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>9</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>12</v>
-      </c>
-      <c r="KX2" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="KY2" t="n">
-        <v>147785</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>152993</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>40020</v>
-      </c>
-      <c r="LB2" t="inlineStr">
-        <is>
-          <t>2012-02-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="LC2" t="n">
-        <v>72</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>73</v>
-      </c>
-      <c r="LE2" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="LF2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="LG2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="LH2" t="n">
-        <v>52</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>46</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>82</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>64</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>54</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>30</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>36</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>46</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>52</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>56</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>51</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>51</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>34</v>
-      </c>
       <c r="LU2" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="LV2" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="LW2" t="n">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="LX2" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="LY2" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="LZ2" t="n">
         <v>83</v>
       </c>
       <c r="MA2" t="n">
+        <v>70</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>69</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>74</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>53</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>59</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>82</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>81</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>80</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>78</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>8</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>11</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>9</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>14</v>
+      </c>
+      <c r="MO2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="MP2" t="n">
+        <v>119330</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>138892</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>27668</v>
+      </c>
+      <c r="MS2" t="inlineStr">
+        <is>
+          <t>2012-02-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="MT2" t="n">
+        <v>72</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>72</v>
+      </c>
+      <c r="MV2" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="MW2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="MX2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="MY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>38</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>70</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>55</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>38</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>42</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>43</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>55</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>55</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>50</v>
+      </c>
+      <c r="NI2" t="n">
         <v>54</v>
       </c>
-      <c r="MB2" t="n">
-        <v>75</v>
-      </c>
-      <c r="MC2" t="n">
+      <c r="NJ2" t="n">
+        <v>62</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>59</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>66</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>66</v>
+      </c>
+      <c r="NN2" t="n">
+        <v>50</v>
+      </c>
+      <c r="NO2" t="n">
+        <v>79</v>
+      </c>
+      <c r="NP2" t="n">
         <v>68</v>
       </c>
-      <c r="MD2" t="n">
-        <v>33</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>46</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>57</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>75</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>75</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>62</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>12</v>
-      </c>
-      <c r="MK2" t="n">
+      <c r="NQ2" t="n">
+        <v>79</v>
+      </c>
+      <c r="NR2" t="n">
+        <v>44</v>
+      </c>
+      <c r="NS2" t="n">
+        <v>76</v>
+      </c>
+      <c r="NT2" t="n">
+        <v>72</v>
+      </c>
+      <c r="NU2" t="n">
+        <v>31</v>
+      </c>
+      <c r="NV2" t="n">
+        <v>55</v>
+      </c>
+      <c r="NW2" t="n">
+        <v>42</v>
+      </c>
+      <c r="NX2" t="n">
+        <v>76</v>
+      </c>
+      <c r="NY2" t="n">
+        <v>76</v>
+      </c>
+      <c r="NZ2" t="n">
+        <v>74</v>
+      </c>
+      <c r="OA2" t="n">
+        <v>11</v>
+      </c>
+      <c r="OB2" t="n">
+        <v>8</v>
+      </c>
+      <c r="OC2" t="n">
         <v>5</v>
       </c>
-      <c r="ML2" t="n">
-        <v>15</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>13</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>9</v>
-      </c>
-      <c r="MO2" t="inlineStr">
+      <c r="OD2" t="n">
+        <v>5</v>
+      </c>
+      <c r="OE2" t="n">
+        <v>6</v>
+      </c>
+      <c r="OF2" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="MP2" t="n">
-        <v>179243</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>199511</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>210451</v>
-      </c>
-      <c r="MS2" t="inlineStr">
+      <c r="OG2" t="n">
+        <v>27303</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>105866</v>
+      </c>
+      <c r="OI2" t="n">
+        <v>39419</v>
+      </c>
+      <c r="OJ2" t="inlineStr">
         <is>
           <t>2012-02-22 00:00:00</t>
         </is>
       </c>
-      <c r="MT2" t="n">
-        <v>64</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>64</v>
-      </c>
-      <c r="MV2" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="MW2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="MX2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="MY2" t="n">
-        <v>29</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>60</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>44</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>16</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>32</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>37</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>32</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>26</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>34</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>68</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>64</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>66</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>64</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>56</v>
-      </c>
-      <c r="NN2" t="n">
-        <v>42</v>
-      </c>
-      <c r="NO2" t="n">
-        <v>73</v>
-      </c>
-      <c r="NP2" t="n">
-        <v>77</v>
-      </c>
-      <c r="NQ2" t="n">
-        <v>80</v>
-      </c>
-      <c r="NR2" t="n">
-        <v>20</v>
-      </c>
-      <c r="NS2" t="n">
-        <v>73</v>
-      </c>
-      <c r="NT2" t="n">
-        <v>67</v>
-      </c>
-      <c r="NU2" t="n">
-        <v>53</v>
-      </c>
-      <c r="NV2" t="n">
-        <v>45</v>
-      </c>
-      <c r="NW2" t="n">
-        <v>27</v>
-      </c>
-      <c r="NX2" t="n">
-        <v>64</v>
-      </c>
-      <c r="NY2" t="n">
-        <v>65</v>
-      </c>
-      <c r="NZ2" t="n">
-        <v>60</v>
-      </c>
-      <c r="OA2" t="n">
-        <v>9</v>
-      </c>
-      <c r="OB2" t="n">
-        <v>5</v>
-      </c>
-      <c r="OC2" t="n">
-        <v>6</v>
-      </c>
-      <c r="OD2" t="n">
-        <v>14</v>
-      </c>
-      <c r="OE2" t="n">
-        <v>8</v>
-      </c>
-      <c r="OF2" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="OG2" t="n">
-        <v>131100</v>
-      </c>
-      <c r="OH2" t="n">
-        <v>193714</v>
-      </c>
-      <c r="OI2" t="n">
-        <v>157288</v>
-      </c>
-      <c r="OJ2" t="inlineStr">
-        <is>
-          <t>2012-02-22 00:00:00</t>
-        </is>
-      </c>
       <c r="OK2" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="OL2" t="n">
         <v>76</v>
       </c>
       <c r="OM2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="ON2" t="inlineStr">
@@ -7004,107 +7004,107 @@
       </c>
       <c r="OO2" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="OP2" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="OQ2" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="OR2" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="OS2" t="n">
         <v>66</v>
       </c>
       <c r="OT2" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="OU2" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="OV2" t="n">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="OW2" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="OX2" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="OY2" t="n">
         <v>62</v>
       </c>
       <c r="OZ2" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="PA2" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="PB2" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="PC2" t="n">
+        <v>73</v>
+      </c>
+      <c r="PD2" t="n">
+        <v>61</v>
+      </c>
+      <c r="PE2" t="n">
+        <v>82</v>
+      </c>
+      <c r="PF2" t="n">
+        <v>78</v>
+      </c>
+      <c r="PG2" t="n">
         <v>68</v>
       </c>
-      <c r="PD2" t="n">
-        <v>67</v>
-      </c>
-      <c r="PE2" t="n">
-        <v>58</v>
-      </c>
-      <c r="PF2" t="n">
-        <v>81</v>
-      </c>
-      <c r="PG2" t="n">
-        <v>71</v>
-      </c>
       <c r="PH2" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="PI2" t="n">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="PJ2" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="PK2" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="PL2" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="PM2" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="PN2" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="PO2" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="PP2" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="PQ2" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="PR2" t="n">
         <v>9</v>
       </c>
       <c r="PS2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="PT2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="PU2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="PV2" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="PW2" t="inlineStr">
         <is>
@@ -7112,13 +7112,13 @@
         </is>
       </c>
       <c r="PX2" t="n">
-        <v>104337</v>
+        <v>14020</v>
       </c>
       <c r="PY2" t="n">
-        <v>142753</v>
+        <v>165440</v>
       </c>
       <c r="PZ2" t="n">
-        <v>113599</v>
+        <v>17836</v>
       </c>
       <c r="QA2" t="inlineStr">
         <is>
@@ -7126,10 +7126,10 @@
         </is>
       </c>
       <c r="QB2" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="QC2" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="QD2" t="inlineStr">
         <is>
@@ -7143,107 +7143,107 @@
       </c>
       <c r="QF2" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="QG2" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="QH2" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="QI2" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="QJ2" t="n">
+        <v>68</v>
+      </c>
+      <c r="QK2" t="n">
+        <v>47</v>
+      </c>
+      <c r="QL2" t="n">
+        <v>75</v>
+      </c>
+      <c r="QM2" t="n">
+        <v>68</v>
+      </c>
+      <c r="QN2" t="n">
+        <v>45</v>
+      </c>
+      <c r="QO2" t="n">
+        <v>56</v>
+      </c>
+      <c r="QP2" t="n">
         <v>73</v>
       </c>
-      <c r="QK2" t="n">
-        <v>51</v>
-      </c>
-      <c r="QL2" t="n">
-        <v>64</v>
-      </c>
-      <c r="QM2" t="n">
-        <v>46</v>
-      </c>
-      <c r="QN2" t="n">
-        <v>56</v>
-      </c>
-      <c r="QO2" t="n">
-        <v>52</v>
-      </c>
-      <c r="QP2" t="n">
-        <v>70</v>
-      </c>
       <c r="QQ2" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="QR2" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="QS2" t="n">
         <v>76</v>
       </c>
       <c r="QT2" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="QU2" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="QV2" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="QW2" t="n">
         <v>65</v>
       </c>
       <c r="QX2" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="QY2" t="n">
+        <v>68</v>
+      </c>
+      <c r="QZ2" t="n">
+        <v>58</v>
+      </c>
+      <c r="RA2" t="n">
         <v>75</v>
       </c>
-      <c r="QZ2" t="n">
-        <v>53</v>
-      </c>
-      <c r="RA2" t="n">
-        <v>80</v>
-      </c>
       <c r="RB2" t="n">
+        <v>65</v>
+      </c>
+      <c r="RC2" t="n">
         <v>72</v>
       </c>
-      <c r="RC2" t="n">
-        <v>62</v>
-      </c>
       <c r="RD2" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="RE2" t="n">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="RF2" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="RG2" t="n">
         <v>74</v>
       </c>
       <c r="RH2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="RI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="RJ2" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="RK2" t="n">
         <v>14</v>
       </c>
       <c r="RL2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="RM2" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="RN2" t="inlineStr">
         <is>
@@ -7251,13 +7251,13 @@
         </is>
       </c>
       <c r="RO2" t="n">
-        <v>170119</v>
+        <v>49825</v>
       </c>
       <c r="RP2" t="n">
-        <v>190034</v>
+        <v>46736</v>
       </c>
       <c r="RQ2" t="n">
-        <v>150869</v>
+        <v>34008</v>
       </c>
       <c r="RR2" t="inlineStr">
         <is>
@@ -7265,10 +7265,10 @@
         </is>
       </c>
       <c r="RS2" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="RT2" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="RU2" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="RV2" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="RW2" t="inlineStr">
@@ -7286,381 +7286,381 @@
         </is>
       </c>
       <c r="RX2" t="n">
+        <v>72</v>
+      </c>
+      <c r="RY2" t="n">
+        <v>26</v>
+      </c>
+      <c r="RZ2" t="n">
         <v>74</v>
       </c>
-      <c r="RY2" t="n">
-        <v>21</v>
-      </c>
-      <c r="RZ2" t="n">
-        <v>58</v>
-      </c>
       <c r="SA2" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="SB2" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="SC2" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="SD2" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="SE2" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="SF2" t="n">
         <v>61</v>
       </c>
       <c r="SG2" t="n">
+        <v>60</v>
+      </c>
+      <c r="SH2" t="n">
+        <v>68</v>
+      </c>
+      <c r="SI2" t="n">
+        <v>65</v>
+      </c>
+      <c r="SJ2" t="n">
+        <v>61</v>
+      </c>
+      <c r="SK2" t="n">
+        <v>72</v>
+      </c>
+      <c r="SL2" t="n">
+        <v>62</v>
+      </c>
+      <c r="SM2" t="n">
+        <v>60</v>
+      </c>
+      <c r="SN2" t="n">
+        <v>78</v>
+      </c>
+      <c r="SO2" t="n">
+        <v>64</v>
+      </c>
+      <c r="SP2" t="n">
+        <v>77</v>
+      </c>
+      <c r="SQ2" t="n">
+        <v>56</v>
+      </c>
+      <c r="SR2" t="n">
+        <v>75</v>
+      </c>
+      <c r="SS2" t="n">
+        <v>76</v>
+      </c>
+      <c r="ST2" t="n">
+        <v>40</v>
+      </c>
+      <c r="SU2" t="n">
+        <v>42</v>
+      </c>
+      <c r="SV2" t="n">
+        <v>59</v>
+      </c>
+      <c r="SW2" t="n">
+        <v>80</v>
+      </c>
+      <c r="SX2" t="n">
+        <v>78</v>
+      </c>
+      <c r="SY2" t="n">
+        <v>74</v>
+      </c>
+      <c r="SZ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="TA2" t="n">
+        <v>10</v>
+      </c>
+      <c r="TB2" t="n">
+        <v>10</v>
+      </c>
+      <c r="TC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="TD2" t="n">
+        <v>15</v>
+      </c>
+      <c r="TE2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="TF2" t="n">
+        <v>163808</v>
+      </c>
+      <c r="TG2" t="n">
+        <v>7517</v>
+      </c>
+      <c r="TH2" t="n">
+        <v>24854</v>
+      </c>
+      <c r="TI2" t="inlineStr">
+        <is>
+          <t>2012-02-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="TJ2" t="n">
         <v>70</v>
       </c>
-      <c r="SH2" t="n">
+      <c r="TK2" t="n">
+        <v>70</v>
+      </c>
+      <c r="TL2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="TM2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="TN2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="TO2" t="n">
+        <v>67</v>
+      </c>
+      <c r="TP2" t="n">
+        <v>47</v>
+      </c>
+      <c r="TQ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="TR2" t="n">
+        <v>75</v>
+      </c>
+      <c r="TS2" t="n">
+        <v>58</v>
+      </c>
+      <c r="TT2" t="n">
+        <v>68</v>
+      </c>
+      <c r="TU2" t="n">
+        <v>67</v>
+      </c>
+      <c r="TV2" t="n">
         <v>66</v>
       </c>
-      <c r="SI2" t="n">
-        <v>73</v>
-      </c>
-      <c r="SJ2" t="n">
+      <c r="TW2" t="n">
+        <v>74</v>
+      </c>
+      <c r="TX2" t="n">
+        <v>74</v>
+      </c>
+      <c r="TY2" t="n">
+        <v>67</v>
+      </c>
+      <c r="TZ2" t="n">
+        <v>34</v>
+      </c>
+      <c r="UA2" t="n">
+        <v>68</v>
+      </c>
+      <c r="UB2" t="n">
         <v>72</v>
       </c>
-      <c r="SK2" t="n">
+      <c r="UC2" t="n">
+        <v>82</v>
+      </c>
+      <c r="UD2" t="n">
+        <v>71</v>
+      </c>
+      <c r="UE2" t="n">
+        <v>64</v>
+      </c>
+      <c r="UF2" t="n">
+        <v>53</v>
+      </c>
+      <c r="UG2" t="n">
         <v>66</v>
       </c>
-      <c r="SL2" t="n">
-        <v>57</v>
-      </c>
-      <c r="SM2" t="n">
-        <v>46</v>
-      </c>
-      <c r="SN2" t="n">
+      <c r="UH2" t="n">
+        <v>75</v>
+      </c>
+      <c r="UI2" t="n">
+        <v>75</v>
+      </c>
+      <c r="UJ2" t="n">
+        <v>66</v>
+      </c>
+      <c r="UK2" t="n">
+        <v>64</v>
+      </c>
+      <c r="UL2" t="n">
+        <v>70</v>
+      </c>
+      <c r="UM2" t="n">
+        <v>70</v>
+      </c>
+      <c r="UN2" t="n">
+        <v>59</v>
+      </c>
+      <c r="UO2" t="n">
+        <v>68</v>
+      </c>
+      <c r="UP2" t="n">
+        <v>68</v>
+      </c>
+      <c r="UQ2" t="n">
+        <v>8</v>
+      </c>
+      <c r="UR2" t="n">
+        <v>9</v>
+      </c>
+      <c r="US2" t="n">
+        <v>15</v>
+      </c>
+      <c r="UT2" t="n">
+        <v>10</v>
+      </c>
+      <c r="UU2" t="n">
+        <v>10</v>
+      </c>
+      <c r="UV2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="UW2" t="n">
+        <v>22454</v>
+      </c>
+      <c r="UX2" t="n">
+        <v>178604</v>
+      </c>
+      <c r="UY2" t="n">
+        <v>40601</v>
+      </c>
+      <c r="UZ2" t="inlineStr">
+        <is>
+          <t>2012-02-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="VA2" t="n">
+        <v>77</v>
+      </c>
+      <c r="VB2" t="n">
+        <v>79</v>
+      </c>
+      <c r="VC2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="VD2" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="VE2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="VF2" t="n">
+        <v>78</v>
+      </c>
+      <c r="VG2" t="n">
+        <v>60</v>
+      </c>
+      <c r="VH2" t="n">
+        <v>65</v>
+      </c>
+      <c r="VI2" t="n">
+        <v>80</v>
+      </c>
+      <c r="VJ2" t="n">
+        <v>74</v>
+      </c>
+      <c r="VK2" t="n">
+        <v>79</v>
+      </c>
+      <c r="VL2" t="n">
+        <v>72</v>
+      </c>
+      <c r="VM2" t="n">
+        <v>75</v>
+      </c>
+      <c r="VN2" t="n">
+        <v>72</v>
+      </c>
+      <c r="VO2" t="n">
+        <v>83</v>
+      </c>
+      <c r="VP2" t="n">
+        <v>74</v>
+      </c>
+      <c r="VQ2" t="n">
+        <v>75</v>
+      </c>
+      <c r="VR2" t="n">
+        <v>74</v>
+      </c>
+      <c r="VS2" t="n">
+        <v>75</v>
+      </c>
+      <c r="VT2" t="n">
+        <v>61</v>
+      </c>
+      <c r="VU2" t="n">
+        <v>75</v>
+      </c>
+      <c r="VV2" t="n">
         <v>62</v>
       </c>
-      <c r="SO2" t="n">
-        <v>71</v>
-      </c>
-      <c r="SP2" t="n">
+      <c r="VW2" t="n">
+        <v>67</v>
+      </c>
+      <c r="VX2" t="n">
+        <v>69</v>
+      </c>
+      <c r="VY2" t="n">
+        <v>78</v>
+      </c>
+      <c r="VZ2" t="n">
         <v>65</v>
       </c>
-      <c r="SQ2" t="n">
-        <v>42</v>
-      </c>
-      <c r="SR2" t="n">
-        <v>64</v>
-      </c>
-      <c r="SS2" t="n">
-        <v>66</v>
-      </c>
-      <c r="ST2" t="n">
-        <v>56</v>
-      </c>
-      <c r="SU2" t="n">
-        <v>52</v>
-      </c>
-      <c r="SV2" t="n">
-        <v>48</v>
-      </c>
-      <c r="SW2" t="n">
-        <v>64</v>
-      </c>
-      <c r="SX2" t="n">
-        <v>64</v>
-      </c>
-      <c r="SY2" t="n">
-        <v>66</v>
-      </c>
-      <c r="SZ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="TA2" t="n">
-        <v>5</v>
-      </c>
-      <c r="TB2" t="n">
-        <v>9</v>
-      </c>
-      <c r="TC2" t="n">
-        <v>15</v>
-      </c>
-      <c r="TD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="TE2" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="TF2" t="n">
-        <v>75166</v>
-      </c>
-      <c r="TG2" t="n">
-        <v>159175</v>
-      </c>
-      <c r="TH2" t="n">
-        <v>31037</v>
-      </c>
-      <c r="TI2" t="inlineStr">
-        <is>
-          <t>2012-02-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="TJ2" t="n">
+      <c r="WA2" t="n">
+        <v>50</v>
+      </c>
+      <c r="WB2" t="n">
         <v>75</v>
       </c>
-      <c r="TK2" t="n">
-        <v>79</v>
-      </c>
-      <c r="TL2" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="TM2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="TN2" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="TO2" t="n">
-        <v>66</v>
-      </c>
-      <c r="TP2" t="n">
-        <v>34</v>
-      </c>
-      <c r="TQ2" t="n">
+      <c r="WC2" t="n">
         <v>75</v>
       </c>
-      <c r="TR2" t="n">
-        <v>74</v>
-      </c>
-      <c r="TS2" t="n">
-        <v>56</v>
-      </c>
-      <c r="TT2" t="n">
-        <v>64</v>
-      </c>
-      <c r="TU2" t="n">
-        <v>34</v>
-      </c>
-      <c r="TV2" t="n">
-        <v>44</v>
-      </c>
-      <c r="TW2" t="n">
-        <v>73</v>
-      </c>
-      <c r="TX2" t="n">
-        <v>73</v>
-      </c>
-      <c r="TY2" t="n">
-        <v>64</v>
-      </c>
-      <c r="TZ2" t="n">
-        <v>67</v>
-      </c>
-      <c r="UA2" t="n">
-        <v>75</v>
-      </c>
-      <c r="UB2" t="n">
-        <v>77</v>
-      </c>
-      <c r="UC2" t="n">
-        <v>67</v>
-      </c>
-      <c r="UD2" t="n">
-        <v>68</v>
-      </c>
-      <c r="UE2" t="n">
-        <v>78</v>
-      </c>
-      <c r="UF2" t="n">
-        <v>90</v>
-      </c>
-      <c r="UG2" t="n">
-        <v>74</v>
-      </c>
-      <c r="UH2" t="n">
-        <v>66</v>
-      </c>
-      <c r="UI2" t="n">
-        <v>89</v>
-      </c>
-      <c r="UJ2" t="n">
+      <c r="WD2" t="n">
         <v>70</v>
       </c>
-      <c r="UK2" t="n">
-        <v>54</v>
-      </c>
-      <c r="UL2" t="n">
-        <v>74</v>
-      </c>
-      <c r="UM2" t="n">
-        <v>56</v>
-      </c>
-      <c r="UN2" t="n">
-        <v>70</v>
-      </c>
-      <c r="UO2" t="n">
-        <v>79</v>
-      </c>
-      <c r="UP2" t="n">
-        <v>81</v>
-      </c>
-      <c r="UQ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="UR2" t="n">
-        <v>5</v>
-      </c>
-      <c r="US2" t="n">
-        <v>6</v>
-      </c>
-      <c r="UT2" t="n">
-        <v>12</v>
-      </c>
-      <c r="UU2" t="n">
-        <v>8</v>
-      </c>
-      <c r="UV2" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="UW2" t="n">
-        <v>107827</v>
-      </c>
-      <c r="UX2" t="n">
-        <v>181870</v>
-      </c>
-      <c r="UY2" t="n">
-        <v>94318</v>
-      </c>
-      <c r="UZ2" t="inlineStr">
-        <is>
-          <t>2012-08-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="VA2" t="n">
-        <v>66</v>
-      </c>
-      <c r="VB2" t="n">
-        <v>77</v>
-      </c>
-      <c r="VC2" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="VD2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="VE2" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="VF2" t="n">
-        <v>69</v>
-      </c>
-      <c r="VG2" t="n">
-        <v>56</v>
-      </c>
-      <c r="VH2" t="n">
-        <v>57</v>
-      </c>
-      <c r="VI2" t="n">
-        <v>71</v>
-      </c>
-      <c r="VJ2" t="n">
-        <v>60</v>
-      </c>
-      <c r="VK2" t="n">
-        <v>72</v>
-      </c>
-      <c r="VL2" t="n">
-        <v>63</v>
-      </c>
-      <c r="VM2" t="n">
-        <v>42</v>
-      </c>
-      <c r="VN2" t="n">
-        <v>62</v>
-      </c>
-      <c r="VO2" t="n">
-        <v>70</v>
-      </c>
-      <c r="VP2" t="n">
-        <v>78</v>
-      </c>
-      <c r="VQ2" t="n">
-        <v>77</v>
-      </c>
-      <c r="VR2" t="n">
-        <v>78</v>
-      </c>
-      <c r="VS2" t="n">
-        <v>63</v>
-      </c>
-      <c r="VT2" t="n">
-        <v>80</v>
-      </c>
-      <c r="VU2" t="n">
-        <v>73</v>
-      </c>
-      <c r="VV2" t="n">
-        <v>58</v>
-      </c>
-      <c r="VW2" t="n">
-        <v>72</v>
-      </c>
-      <c r="VX2" t="n">
-        <v>51</v>
-      </c>
-      <c r="VY2" t="n">
-        <v>70</v>
-      </c>
-      <c r="VZ2" t="n">
-        <v>23</v>
-      </c>
-      <c r="WA2" t="n">
-        <v>21</v>
-      </c>
-      <c r="WB2" t="n">
-        <v>38</v>
-      </c>
-      <c r="WC2" t="n">
-        <v>72</v>
-      </c>
-      <c r="WD2" t="n">
-        <v>66</v>
-      </c>
       <c r="WE2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="WF2" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="WG2" t="n">
         <v>37</v>
       </c>
       <c r="WH2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="WI2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="WJ2" t="n">
         <v>11</v>
       </c>
       <c r="WK2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="WL2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="WM2" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="WN2" t="n">
-        <v>20347</v>
+        <v>57777</v>
       </c>
       <c r="WO2" t="n">
-        <v>200966</v>
+        <v>188076</v>
       </c>
       <c r="WP2" t="n">
-        <v>210404</v>
+        <v>40656</v>
       </c>
       <c r="WQ2" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="WR2" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="WS2" t="n">
         <v>80</v>
@@ -7694,668 +7694,668 @@
       </c>
       <c r="WU2" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="WV2" t="inlineStr">
+        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="WV2" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
       <c r="WW2" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="WX2" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="WY2" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="WZ2" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="XA2" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="XB2" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="XC2" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="XD2" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="XE2" t="n">
         <v>73</v>
       </c>
       <c r="XF2" t="n">
+        <v>74</v>
+      </c>
+      <c r="XG2" t="n">
+        <v>68</v>
+      </c>
+      <c r="XH2" t="n">
+        <v>66</v>
+      </c>
+      <c r="XI2" t="n">
+        <v>67</v>
+      </c>
+      <c r="XJ2" t="n">
+        <v>70</v>
+      </c>
+      <c r="XK2" t="n">
+        <v>70</v>
+      </c>
+      <c r="XL2" t="n">
+        <v>68</v>
+      </c>
+      <c r="XM2" t="n">
+        <v>66</v>
+      </c>
+      <c r="XN2" t="n">
+        <v>69</v>
+      </c>
+      <c r="XO2" t="n">
+        <v>69</v>
+      </c>
+      <c r="XP2" t="n">
+        <v>64</v>
+      </c>
+      <c r="XQ2" t="n">
+        <v>70</v>
+      </c>
+      <c r="XR2" t="n">
+        <v>66</v>
+      </c>
+      <c r="XS2" t="n">
+        <v>62</v>
+      </c>
+      <c r="XT2" t="n">
+        <v>66</v>
+      </c>
+      <c r="XU2" t="n">
+        <v>55</v>
+      </c>
+      <c r="XV2" t="n">
+        <v>57</v>
+      </c>
+      <c r="XW2" t="n">
+        <v>68</v>
+      </c>
+      <c r="XX2" t="n">
+        <v>68</v>
+      </c>
+      <c r="XY2" t="n">
+        <v>10</v>
+      </c>
+      <c r="XZ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="YA2" t="n">
+        <v>12</v>
+      </c>
+      <c r="YB2" t="n">
+        <v>12</v>
+      </c>
+      <c r="YC2" t="n">
+        <v>15</v>
+      </c>
+      <c r="YD2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="YE2" t="n">
+        <v>92356</v>
+      </c>
+      <c r="YF2" t="n">
+        <v>190875</v>
+      </c>
+      <c r="YG2" t="n">
+        <v>72518</v>
+      </c>
+      <c r="YH2" t="inlineStr">
+        <is>
+          <t>2012-02-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="YI2" t="n">
+        <v>77</v>
+      </c>
+      <c r="YJ2" t="n">
+        <v>82</v>
+      </c>
+      <c r="YK2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="YL2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="YM2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="YN2" t="n">
+        <v>72</v>
+      </c>
+      <c r="YO2" t="n">
+        <v>64</v>
+      </c>
+      <c r="YP2" t="n">
+        <v>74</v>
+      </c>
+      <c r="YQ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="YR2" t="n">
+        <v>71</v>
+      </c>
+      <c r="YS2" t="n">
+        <v>75</v>
+      </c>
+      <c r="YT2" t="n">
+        <v>68</v>
+      </c>
+      <c r="YU2" t="n">
+        <v>72</v>
+      </c>
+      <c r="YV2" t="n">
+        <v>78</v>
+      </c>
+      <c r="YW2" t="n">
         <v>79</v>
       </c>
-      <c r="XG2" t="n">
-        <v>84</v>
-      </c>
-      <c r="XH2" t="n">
+      <c r="YX2" t="n">
+        <v>67</v>
+      </c>
+      <c r="YY2" t="n">
+        <v>73</v>
+      </c>
+      <c r="YZ2" t="n">
+        <v>74</v>
+      </c>
+      <c r="ZA2" t="n">
+        <v>75</v>
+      </c>
+      <c r="ZB2" t="n">
+        <v>49</v>
+      </c>
+      <c r="ZC2" t="n">
+        <v>83</v>
+      </c>
+      <c r="ZD2" t="n">
+        <v>75</v>
+      </c>
+      <c r="ZE2" t="n">
+        <v>85</v>
+      </c>
+      <c r="ZF2" t="n">
+        <v>90</v>
+      </c>
+      <c r="ZG2" t="n">
+        <v>81</v>
+      </c>
+      <c r="ZH2" t="n">
+        <v>76</v>
+      </c>
+      <c r="ZI2" t="n">
+        <v>76</v>
+      </c>
+      <c r="ZJ2" t="n">
+        <v>72</v>
+      </c>
+      <c r="ZK2" t="n">
+        <v>74</v>
+      </c>
+      <c r="ZL2" t="n">
+        <v>72</v>
+      </c>
+      <c r="ZM2" t="n">
+        <v>67</v>
+      </c>
+      <c r="ZN2" t="n">
         <v>77</v>
       </c>
-      <c r="XI2" t="n">
-        <v>74</v>
-      </c>
-      <c r="XJ2" t="n">
-        <v>76</v>
-      </c>
-      <c r="XK2" t="n">
-        <v>72</v>
-      </c>
-      <c r="XL2" t="n">
-        <v>76</v>
-      </c>
-      <c r="XM2" t="n">
-        <v>75</v>
-      </c>
-      <c r="XN2" t="n">
-        <v>81</v>
-      </c>
-      <c r="XO2" t="n">
-        <v>63</v>
-      </c>
-      <c r="XP2" t="n">
-        <v>75</v>
-      </c>
-      <c r="XQ2" t="n">
-        <v>74</v>
-      </c>
-      <c r="XR2" t="n">
-        <v>71</v>
-      </c>
-      <c r="XS2" t="n">
-        <v>72</v>
-      </c>
-      <c r="XT2" t="n">
-        <v>81</v>
-      </c>
-      <c r="XU2" t="n">
-        <v>68</v>
-      </c>
-      <c r="XV2" t="n">
-        <v>70</v>
-      </c>
-      <c r="XW2" t="n">
-        <v>75</v>
-      </c>
-      <c r="XX2" t="n">
-        <v>69</v>
-      </c>
-      <c r="XY2" t="n">
+      <c r="ZO2" t="n">
+        <v>77</v>
+      </c>
+      <c r="ZP2" t="n">
         <v>14</v>
-      </c>
-      <c r="XZ2" t="n">
-        <v>14</v>
-      </c>
-      <c r="YA2" t="n">
-        <v>7</v>
-      </c>
-      <c r="YB2" t="n">
-        <v>13</v>
-      </c>
-      <c r="YC2" t="n">
-        <v>5</v>
-      </c>
-      <c r="YD2" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="YE2" t="n">
-        <v>25130</v>
-      </c>
-      <c r="YF2" t="n">
-        <v>9723</v>
-      </c>
-      <c r="YG2" t="n">
-        <v>32566</v>
-      </c>
-      <c r="YH2" t="inlineStr">
-        <is>
-          <t>2012-02-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="YI2" t="n">
-        <v>73</v>
-      </c>
-      <c r="YJ2" t="n">
-        <v>73</v>
-      </c>
-      <c r="YK2" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="YL2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="YM2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="YN2" t="n">
-        <v>67</v>
-      </c>
-      <c r="YO2" t="n">
-        <v>59</v>
-      </c>
-      <c r="YP2" t="n">
-        <v>62</v>
-      </c>
-      <c r="YQ2" t="n">
-        <v>75</v>
-      </c>
-      <c r="YR2" t="n">
-        <v>64</v>
-      </c>
-      <c r="YS2" t="n">
-        <v>76</v>
-      </c>
-      <c r="YT2" t="n">
-        <v>67</v>
-      </c>
-      <c r="YU2" t="n">
-        <v>69</v>
-      </c>
-      <c r="YV2" t="n">
-        <v>72</v>
-      </c>
-      <c r="YW2" t="n">
-        <v>75</v>
-      </c>
-      <c r="YX2" t="n">
-        <v>72</v>
-      </c>
-      <c r="YY2" t="n">
-        <v>54</v>
-      </c>
-      <c r="YZ2" t="n">
-        <v>71</v>
-      </c>
-      <c r="ZA2" t="n">
-        <v>72</v>
-      </c>
-      <c r="ZB2" t="n">
-        <v>75</v>
-      </c>
-      <c r="ZC2" t="n">
-        <v>67</v>
-      </c>
-      <c r="ZD2" t="n">
-        <v>65</v>
-      </c>
-      <c r="ZE2" t="n">
-        <v>62</v>
-      </c>
-      <c r="ZF2" t="n">
-        <v>55</v>
-      </c>
-      <c r="ZG2" t="n">
-        <v>67</v>
-      </c>
-      <c r="ZH2" t="n">
-        <v>54</v>
-      </c>
-      <c r="ZI2" t="n">
-        <v>48</v>
-      </c>
-      <c r="ZJ2" t="n">
-        <v>68</v>
-      </c>
-      <c r="ZK2" t="n">
-        <v>82</v>
-      </c>
-      <c r="ZL2" t="n">
-        <v>74</v>
-      </c>
-      <c r="ZM2" t="n">
-        <v>29</v>
-      </c>
-      <c r="ZN2" t="n">
-        <v>22</v>
-      </c>
-      <c r="ZO2" t="n">
-        <v>24</v>
-      </c>
-      <c r="ZP2" t="n">
-        <v>13</v>
       </c>
       <c r="ZQ2" t="n">
         <v>8</v>
       </c>
       <c r="ZR2" t="n">
+        <v>9</v>
+      </c>
+      <c r="ZS2" t="n">
+        <v>15</v>
+      </c>
+      <c r="ZT2" t="n">
+        <v>8</v>
+      </c>
+      <c r="ZU2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="ZV2" t="n">
+        <v>33267</v>
+      </c>
+      <c r="ZW2" t="n">
+        <v>173305</v>
+      </c>
+      <c r="ZX2" t="n">
+        <v>39229</v>
+      </c>
+      <c r="ZY2" t="inlineStr">
+        <is>
+          <t>2012-02-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="ZZ2" t="n">
+        <v>71</v>
+      </c>
+      <c r="AAA2" t="n">
+        <v>71</v>
+      </c>
+      <c r="AAB2" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="AAC2" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="AAD2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="AAE2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AAF2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AAG2" t="n">
+        <v>56</v>
+      </c>
+      <c r="AAH2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AAI2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AAJ2" t="n">
+        <v>62</v>
+      </c>
+      <c r="AAK2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AAL2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AAM2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AAN2" t="n">
+        <v>64</v>
+      </c>
+      <c r="AAO2" t="n">
+        <v>76</v>
+      </c>
+      <c r="AAP2" t="n">
+        <v>76</v>
+      </c>
+      <c r="AAQ2" t="n">
+        <v>78</v>
+      </c>
+      <c r="AAR2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AAS2" t="n">
+        <v>91</v>
+      </c>
+      <c r="AAT2" t="n">
+        <v>63</v>
+      </c>
+      <c r="AAU2" t="n">
+        <v>66</v>
+      </c>
+      <c r="AAV2" t="n">
+        <v>84</v>
+      </c>
+      <c r="AAW2" t="n">
+        <v>58</v>
+      </c>
+      <c r="AAX2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AAY2" t="n">
+        <v>73</v>
+      </c>
+      <c r="AAZ2" t="n">
+        <v>70</v>
+      </c>
+      <c r="ABA2" t="n">
+        <v>50</v>
+      </c>
+      <c r="ABB2" t="n">
+        <v>58</v>
+      </c>
+      <c r="ABC2" t="n">
+        <v>50</v>
+      </c>
+      <c r="ABD2" t="n">
+        <v>68</v>
+      </c>
+      <c r="ABE2" t="n">
+        <v>75</v>
+      </c>
+      <c r="ABF2" t="n">
+        <v>75</v>
+      </c>
+      <c r="ABG2" t="n">
+        <v>13</v>
+      </c>
+      <c r="ABH2" t="n">
+        <v>14</v>
+      </c>
+      <c r="ABI2" t="n">
+        <v>12</v>
+      </c>
+      <c r="ABJ2" t="n">
+        <v>14</v>
+      </c>
+      <c r="ABK2" t="n">
+        <v>12</v>
+      </c>
+      <c r="ABL2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="ABM2" t="n">
+        <v>54976</v>
+      </c>
+      <c r="ABN2" t="n">
+        <v>203798</v>
+      </c>
+      <c r="ABO2" t="n">
+        <v>49897</v>
+      </c>
+      <c r="ABP2" t="inlineStr">
+        <is>
+          <t>2012-02-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="ABQ2" t="n">
+        <v>74</v>
+      </c>
+      <c r="ABR2" t="n">
+        <v>78</v>
+      </c>
+      <c r="ABS2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="ABT2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="ABU2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="ABV2" t="n">
+        <v>70</v>
+      </c>
+      <c r="ABW2" t="n">
+        <v>60</v>
+      </c>
+      <c r="ABX2" t="n">
+        <v>60</v>
+      </c>
+      <c r="ABY2" t="n">
+        <v>78</v>
+      </c>
+      <c r="ABZ2" t="n">
+        <v>72</v>
+      </c>
+      <c r="ACA2" t="n">
+        <v>73</v>
+      </c>
+      <c r="ACB2" t="n">
+        <v>65</v>
+      </c>
+      <c r="ACC2" t="n">
+        <v>65</v>
+      </c>
+      <c r="ACD2" t="n">
+        <v>76</v>
+      </c>
+      <c r="ACE2" t="n">
+        <v>75</v>
+      </c>
+      <c r="ACF2" t="n">
+        <v>69</v>
+      </c>
+      <c r="ACG2" t="n">
+        <v>69</v>
+      </c>
+      <c r="ACH2" t="n">
+        <v>68</v>
+      </c>
+      <c r="ACI2" t="n">
+        <v>69</v>
+      </c>
+      <c r="ACJ2" t="n">
+        <v>78</v>
+      </c>
+      <c r="ACK2" t="n">
+        <v>74</v>
+      </c>
+      <c r="ACL2" t="n">
+        <v>60</v>
+      </c>
+      <c r="ACM2" t="n">
+        <v>74</v>
+      </c>
+      <c r="ACN2" t="n">
+        <v>68</v>
+      </c>
+      <c r="ACO2" t="n">
+        <v>72</v>
+      </c>
+      <c r="ACP2" t="n">
+        <v>76</v>
+      </c>
+      <c r="ACQ2" t="n">
+        <v>70</v>
+      </c>
+      <c r="ACR2" t="n">
+        <v>72</v>
+      </c>
+      <c r="ACS2" t="n">
+        <v>74</v>
+      </c>
+      <c r="ACT2" t="n">
+        <v>65</v>
+      </c>
+      <c r="ACU2" t="n">
+        <v>67</v>
+      </c>
+      <c r="ACV2" t="n">
+        <v>75</v>
+      </c>
+      <c r="ACW2" t="n">
+        <v>68</v>
+      </c>
+      <c r="ACX2" t="n">
+        <v>13</v>
+      </c>
+      <c r="ACY2" t="n">
+        <v>8</v>
+      </c>
+      <c r="ACZ2" t="n">
+        <v>12</v>
+      </c>
+      <c r="ADA2" t="n">
         <v>10</v>
       </c>
-      <c r="ZS2" t="n">
-        <v>7</v>
-      </c>
-      <c r="ZT2" t="n">
-        <v>5</v>
-      </c>
-      <c r="ZU2" t="inlineStr">
+      <c r="ADB2" t="n">
+        <v>12</v>
+      </c>
+      <c r="ADC2" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="ZV2" t="n">
-        <v>181082</v>
-      </c>
-      <c r="ZW2" t="n">
-        <v>137960</v>
-      </c>
-      <c r="ZX2" t="n">
-        <v>5610</v>
-      </c>
-      <c r="ZY2" t="inlineStr">
-        <is>
-          <t>2012-02-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="ZZ2" t="n">
+      <c r="ADD2" t="n">
+        <v>58213</v>
+      </c>
+      <c r="ADE2" t="n">
+        <v>169388</v>
+      </c>
+      <c r="ADF2" t="n">
+        <v>42433</v>
+      </c>
+      <c r="ADG2" t="inlineStr">
+        <is>
+          <t>2012-08-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="ADH2" t="n">
+        <v>72</v>
+      </c>
+      <c r="ADI2" t="n">
+        <v>72</v>
+      </c>
+      <c r="ADJ2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="ADK2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="ADL2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="ADM2" t="n">
+        <v>76</v>
+      </c>
+      <c r="ADN2" t="n">
+        <v>60</v>
+      </c>
+      <c r="ADO2" t="n">
+        <v>42</v>
+      </c>
+      <c r="ADP2" t="n">
+        <v>72</v>
+      </c>
+      <c r="ADQ2" t="n">
+        <v>52</v>
+      </c>
+      <c r="ADR2" t="n">
+        <v>70</v>
+      </c>
+      <c r="ADS2" t="n">
+        <v>62</v>
+      </c>
+      <c r="ADT2" t="n">
+        <v>62</v>
+      </c>
+      <c r="ADU2" t="n">
+        <v>68</v>
+      </c>
+      <c r="ADV2" t="n">
+        <v>73</v>
+      </c>
+      <c r="ADW2" t="n">
+        <v>78</v>
+      </c>
+      <c r="ADX2" t="n">
+        <v>63</v>
+      </c>
+      <c r="ADY2" t="n">
         <v>74</v>
       </c>
-      <c r="AAA2" t="n">
+      <c r="ADZ2" t="n">
+        <v>72</v>
+      </c>
+      <c r="AEA2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AEB2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AEC2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AED2" t="n">
+        <v>78</v>
+      </c>
+      <c r="AEE2" t="n">
+        <v>64</v>
+      </c>
+      <c r="AEF2" t="n">
         <v>76</v>
       </c>
-      <c r="AAB2" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="AAC2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="AAD2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="AAE2" t="n">
-        <v>76</v>
-      </c>
-      <c r="AAF2" t="n">
-        <v>64</v>
-      </c>
-      <c r="AAG2" t="n">
-        <v>64</v>
-      </c>
-      <c r="AAH2" t="n">
-        <v>78</v>
-      </c>
-      <c r="AAI2" t="n">
+      <c r="AEG2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AEH2" t="n">
         <v>60</v>
       </c>
-      <c r="AAJ2" t="n">
-        <v>74</v>
-      </c>
-      <c r="AAK2" t="n">
-        <v>57</v>
-      </c>
-      <c r="AAL2" t="n">
+      <c r="AEI2" t="n">
+        <v>68</v>
+      </c>
+      <c r="AEJ2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AEK2" t="n">
+        <v>56</v>
+      </c>
+      <c r="AEL2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AEM2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AEN2" t="n">
         <v>61</v>
       </c>
-      <c r="AAM2" t="n">
-        <v>76</v>
-      </c>
-      <c r="AAN2" t="n">
-        <v>74</v>
-      </c>
-      <c r="AAO2" t="n">
-        <v>73</v>
-      </c>
-      <c r="AAP2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AAQ2" t="n">
-        <v>66</v>
-      </c>
-      <c r="AAR2" t="n">
-        <v>77</v>
-      </c>
-      <c r="AAS2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AAT2" t="n">
-        <v>66</v>
-      </c>
-      <c r="AAU2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AAV2" t="n">
-        <v>58</v>
-      </c>
-      <c r="AAW2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AAX2" t="n">
-        <v>68</v>
-      </c>
-      <c r="AAY2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AAZ2" t="n">
-        <v>53</v>
-      </c>
-      <c r="ABA2" t="n">
-        <v>69</v>
-      </c>
-      <c r="ABB2" t="n">
-        <v>74</v>
-      </c>
-      <c r="ABC2" t="n">
-        <v>72</v>
-      </c>
-      <c r="ABD2" t="n">
-        <v>49</v>
-      </c>
-      <c r="ABE2" t="n">
-        <v>57</v>
-      </c>
-      <c r="ABF2" t="n">
-        <v>59</v>
-      </c>
-      <c r="ABG2" t="n">
-        <v>10</v>
-      </c>
-      <c r="ABH2" t="n">
-        <v>15</v>
-      </c>
-      <c r="ABI2" t="n">
-        <v>5</v>
-      </c>
-      <c r="ABJ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="ABK2" t="n">
-        <v>9</v>
-      </c>
-      <c r="ABL2" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="ABM2" t="n">
-        <v>43409</v>
-      </c>
-      <c r="ABN2" t="n">
-        <v>165434</v>
-      </c>
-      <c r="ABO2" t="n">
-        <v>33128</v>
-      </c>
-      <c r="ABP2" t="inlineStr">
-        <is>
-          <t>2012-08-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="ABQ2" t="n">
-        <v>70</v>
-      </c>
-      <c r="ABR2" t="n">
-        <v>75</v>
-      </c>
-      <c r="ABS2" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="ABT2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="ABU2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="ABV2" t="n">
-        <v>47</v>
-      </c>
-      <c r="ABW2" t="n">
-        <v>58</v>
-      </c>
-      <c r="ABX2" t="n">
-        <v>74</v>
-      </c>
-      <c r="ABY2" t="n">
-        <v>77</v>
-      </c>
-      <c r="ABZ2" t="n">
-        <v>33</v>
-      </c>
-      <c r="ACA2" t="n">
-        <v>70</v>
-      </c>
-      <c r="ACB2" t="n">
-        <v>55</v>
-      </c>
-      <c r="ACC2" t="n">
-        <v>54</v>
-      </c>
-      <c r="ACD2" t="n">
-        <v>72</v>
-      </c>
-      <c r="ACE2" t="n">
-        <v>74</v>
-      </c>
-      <c r="ACF2" t="n">
-        <v>68</v>
-      </c>
-      <c r="ACG2" t="n">
-        <v>65</v>
-      </c>
-      <c r="ACH2" t="n">
-        <v>72</v>
-      </c>
-      <c r="ACI2" t="n">
-        <v>67</v>
-      </c>
-      <c r="ACJ2" t="n">
-        <v>63</v>
-      </c>
-      <c r="ACK2" t="n">
-        <v>68</v>
-      </c>
-      <c r="ACL2" t="n">
-        <v>72</v>
-      </c>
-      <c r="ACM2" t="n">
-        <v>75</v>
-      </c>
-      <c r="ACN2" t="n">
-        <v>74</v>
-      </c>
-      <c r="ACO2" t="n">
-        <v>70</v>
-      </c>
-      <c r="ACP2" t="n">
-        <v>75</v>
-      </c>
-      <c r="ACQ2" t="n">
-        <v>48</v>
-      </c>
-      <c r="ACR2" t="n">
-        <v>40</v>
-      </c>
-      <c r="ACS2" t="n">
-        <v>75</v>
-      </c>
-      <c r="ACT2" t="n">
-        <v>74</v>
-      </c>
-      <c r="ACU2" t="n">
-        <v>72</v>
-      </c>
-      <c r="ACV2" t="n">
-        <v>74</v>
-      </c>
-      <c r="ACW2" t="n">
-        <v>71</v>
-      </c>
-      <c r="ACX2" t="n">
-        <v>9</v>
-      </c>
-      <c r="ACY2" t="n">
-        <v>15</v>
-      </c>
-      <c r="ACZ2" t="n">
-        <v>5</v>
-      </c>
-      <c r="ADA2" t="n">
+      <c r="AEO2" t="n">
         <v>12</v>
-      </c>
-      <c r="ADB2" t="n">
-        <v>9</v>
-      </c>
-      <c r="ADC2" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="ADD2" t="n">
-        <v>121293</v>
-      </c>
-      <c r="ADE2" t="n">
-        <v>192608</v>
-      </c>
-      <c r="ADF2" t="n">
-        <v>179415</v>
-      </c>
-      <c r="ADG2" t="inlineStr">
-        <is>
-          <t>2012-02-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="ADH2" t="n">
-        <v>57</v>
-      </c>
-      <c r="ADI2" t="n">
-        <v>66</v>
-      </c>
-      <c r="ADJ2" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="ADK2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="ADL2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="ADM2" t="n">
-        <v>53</v>
-      </c>
-      <c r="ADN2" t="n">
-        <v>29</v>
-      </c>
-      <c r="ADO2" t="n">
-        <v>33</v>
-      </c>
-      <c r="ADP2" t="n">
-        <v>62</v>
-      </c>
-      <c r="ADQ2" t="n">
-        <v>26</v>
-      </c>
-      <c r="ADR2" t="n">
-        <v>62</v>
-      </c>
-      <c r="ADS2" t="n">
-        <v>59</v>
-      </c>
-      <c r="ADT2" t="n">
-        <v>38</v>
-      </c>
-      <c r="ADU2" t="n">
-        <v>39</v>
-      </c>
-      <c r="ADV2" t="n">
-        <v>62</v>
-      </c>
-      <c r="ADW2" t="n">
-        <v>68</v>
-      </c>
-      <c r="ADX2" t="n">
-        <v>70</v>
-      </c>
-      <c r="ADY2" t="n">
-        <v>60</v>
-      </c>
-      <c r="ADZ2" t="n">
-        <v>52</v>
-      </c>
-      <c r="AEA2" t="n">
-        <v>71</v>
-      </c>
-      <c r="AEB2" t="n">
-        <v>44</v>
-      </c>
-      <c r="AEC2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AED2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AEE2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AEF2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AEG2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AEH2" t="n">
-        <v>37</v>
-      </c>
-      <c r="AEI2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AEJ2" t="n">
-        <v>58</v>
-      </c>
-      <c r="AEK2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AEL2" t="n">
-        <v>43</v>
-      </c>
-      <c r="AEM2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AEN2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AEO2" t="n">
-        <v>7</v>
       </c>
       <c r="AEP2" t="n">
         <v>14</v>
       </c>
       <c r="AEQ2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AER2" t="n">
         <v>15</v>
       </c>
       <c r="AES2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AET2" t="inlineStr">
         <is>
@@ -8363,13 +8363,13 @@
         </is>
       </c>
       <c r="AEU2" t="n">
-        <v>175756</v>
+        <v>103656</v>
       </c>
       <c r="AEV2" t="n">
-        <v>201878</v>
+        <v>173204</v>
       </c>
       <c r="AEW2" t="n">
-        <v>237631</v>
+        <v>46374</v>
       </c>
       <c r="AEX2" t="inlineStr">
         <is>
@@ -8377,14 +8377,14 @@
         </is>
       </c>
       <c r="AEY2" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AEZ2" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AFA2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="AFB2" t="inlineStr">
@@ -8398,103 +8398,103 @@
         </is>
       </c>
       <c r="AFD2" t="n">
+        <v>78</v>
+      </c>
+      <c r="AFE2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AFF2" t="n">
         <v>56</v>
       </c>
-      <c r="AFE2" t="n">
-        <v>63</v>
-      </c>
-      <c r="AFF2" t="n">
-        <v>46</v>
-      </c>
       <c r="AFG2" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AFH2" t="n">
         <v>57</v>
       </c>
       <c r="AFI2" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AFJ2" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AFK2" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AFL2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AFM2" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AFN2" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AFO2" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AFP2" t="n">
         <v>74</v>
       </c>
       <c r="AFQ2" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="AFR2" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="AFS2" t="n">
+        <v>69</v>
+      </c>
+      <c r="AFT2" t="n">
+        <v>64</v>
+      </c>
+      <c r="AFU2" t="n">
+        <v>79</v>
+      </c>
+      <c r="AFV2" t="n">
+        <v>76</v>
+      </c>
+      <c r="AFW2" t="n">
+        <v>58</v>
+      </c>
+      <c r="AFX2" t="n">
+        <v>74</v>
+      </c>
+      <c r="AFY2" t="n">
+        <v>72</v>
+      </c>
+      <c r="AFZ2" t="n">
         <v>62</v>
       </c>
-      <c r="AFT2" t="n">
-        <v>57</v>
-      </c>
-      <c r="AFU2" t="n">
-        <v>69</v>
-      </c>
-      <c r="AFV2" t="n">
-        <v>62</v>
-      </c>
-      <c r="AFW2" t="n">
-        <v>59</v>
-      </c>
-      <c r="AFX2" t="n">
-        <v>52</v>
-      </c>
-      <c r="AFY2" t="n">
-        <v>33</v>
-      </c>
-      <c r="AFZ2" t="n">
-        <v>58</v>
-      </c>
       <c r="AGA2" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AGB2" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AGC2" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AGD2" t="n">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="AGE2" t="n">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="AGF2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AGG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AGH2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AGI2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AGJ2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AGK2" t="inlineStr">
         <is>
@@ -8502,13 +8502,13 @@
         </is>
       </c>
       <c r="AGL2" t="n">
-        <v>105173</v>
+        <v>183419</v>
       </c>
       <c r="AGM2" t="n">
-        <v>1551</v>
+        <v>181132</v>
       </c>
       <c r="AGN2" t="n">
-        <v>32572</v>
+        <v>185867</v>
       </c>
       <c r="AGO2" t="inlineStr">
         <is>
@@ -8516,10 +8516,10 @@
         </is>
       </c>
       <c r="AGP2" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AGQ2" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AGR2" t="inlineStr">
         <is>
@@ -8528,251 +8528,251 @@
       </c>
       <c r="AGS2" t="inlineStr">
         <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="AGT2" t="inlineStr">
+        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="AGT2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
       <c r="AGU2" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AGV2" t="n">
         <v>70</v>
       </c>
       <c r="AGW2" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="AGX2" t="n">
+        <v>71</v>
+      </c>
+      <c r="AGY2" t="n">
+        <v>73</v>
+      </c>
+      <c r="AGZ2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AHA2" t="n">
+        <v>61</v>
+      </c>
+      <c r="AHB2" t="n">
+        <v>64</v>
+      </c>
+      <c r="AHC2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AHD2" t="n">
+        <v>78</v>
+      </c>
+      <c r="AHE2" t="n">
+        <v>78</v>
+      </c>
+      <c r="AHF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AHG2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AHH2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AHI2" t="n">
+        <v>69</v>
+      </c>
+      <c r="AHJ2" t="n">
+        <v>77</v>
+      </c>
+      <c r="AHK2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AHL2" t="n">
+        <v>68</v>
+      </c>
+      <c r="AHM2" t="n">
+        <v>69</v>
+      </c>
+      <c r="AHN2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AHO2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AHP2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AHQ2" t="n">
+        <v>76</v>
+      </c>
+      <c r="AHR2" t="n">
+        <v>66</v>
+      </c>
+      <c r="AHS2" t="n">
+        <v>71</v>
+      </c>
+      <c r="AHT2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AHU2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AHV2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AHW2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AHX2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AHY2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AHZ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AIA2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AIB2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="AIC2" t="n">
+        <v>33402</v>
+      </c>
+      <c r="AID2" t="n">
+        <v>205555</v>
+      </c>
+      <c r="AIE2" t="n">
+        <v>50449</v>
+      </c>
+      <c r="AIF2" t="inlineStr">
+        <is>
+          <t>2012-02-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="AIG2" t="n">
         <v>74</v>
       </c>
-      <c r="AGY2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AGZ2" t="n">
-        <v>72</v>
-      </c>
-      <c r="AHA2" t="n">
-        <v>69</v>
-      </c>
-      <c r="AHB2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AHC2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AHD2" t="n">
+      <c r="AIH2" t="n">
+        <v>83</v>
+      </c>
+      <c r="AII2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="AIJ2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="AIK2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="AIL2" t="n">
         <v>70</v>
       </c>
-      <c r="AHE2" t="n">
-        <v>74</v>
-      </c>
-      <c r="AHF2" t="n">
-        <v>74</v>
-      </c>
-      <c r="AHG2" t="n">
-        <v>82</v>
-      </c>
-      <c r="AHH2" t="n">
-        <v>72</v>
-      </c>
-      <c r="AHI2" t="n">
-        <v>92</v>
-      </c>
-      <c r="AHJ2" t="n">
-        <v>71</v>
-      </c>
-      <c r="AHK2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AHL2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AHM2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AHN2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AHO2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AHP2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AHQ2" t="n">
-        <v>63</v>
-      </c>
-      <c r="AHR2" t="n">
-        <v>76</v>
-      </c>
-      <c r="AHS2" t="n">
-        <v>72</v>
-      </c>
-      <c r="AHT2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AHU2" t="n">
-        <v>39</v>
-      </c>
-      <c r="AHV2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AHW2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AHX2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AHY2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AHZ2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AIA2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AIB2" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="AIC2" t="n">
-        <v>50881</v>
-      </c>
-      <c r="AID2" t="n">
-        <v>199418</v>
-      </c>
-      <c r="AIE2" t="n">
-        <v>210406</v>
-      </c>
-      <c r="AIF2" t="inlineStr">
-        <is>
-          <t>2012-02-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="AIG2" t="n">
-        <v>71</v>
-      </c>
-      <c r="AIH2" t="n">
-        <v>76</v>
-      </c>
-      <c r="AII2" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="AIJ2" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="AIK2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="AIL2" t="n">
-        <v>68</v>
-      </c>
       <c r="AIM2" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AIN2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AIO2" t="n">
         <v>75</v>
       </c>
       <c r="AIP2" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AIQ2" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AIR2" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AIS2" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AIT2" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AIU2" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AIV2" t="n">
         <v>74</v>
       </c>
       <c r="AIW2" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AIX2" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AIY2" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AIZ2" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AJA2" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJB2" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJC2" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="AJD2" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AJE2" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AJF2" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AJG2" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AJH2" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AJI2" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AJJ2" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AJK2" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AJL2" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AJM2" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AJN2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AJO2" t="n">
         <v>9</v>
       </c>
       <c r="AJP2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AJQ2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AJR2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AJS2" t="inlineStr">
         <is>
@@ -8780,13 +8780,13 @@
         </is>
       </c>
       <c r="AJT2" t="n">
-        <v>80435</v>
+        <v>49371</v>
       </c>
       <c r="AJU2" t="n">
-        <v>52735</v>
+        <v>149224</v>
       </c>
       <c r="AJV2" t="n">
-        <v>24753</v>
+        <v>42041</v>
       </c>
       <c r="AJW2" t="inlineStr">
         <is>
@@ -8794,14 +8794,14 @@
         </is>
       </c>
       <c r="AJX2" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJY2" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJZ2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="AKA2" t="inlineStr">
@@ -8815,91 +8815,91 @@
         </is>
       </c>
       <c r="AKC2" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="AKD2" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AKE2" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="AKF2" t="n">
         <v>65</v>
       </c>
       <c r="AKG2" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AKH2" t="n">
         <v>73</v>
       </c>
       <c r="AKI2" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="AKJ2" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AKK2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AKL2" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AKM2" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="AKN2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AKO2" t="n">
+        <v>72</v>
+      </c>
+      <c r="AKP2" t="n">
+        <v>76</v>
+      </c>
+      <c r="AKQ2" t="n">
+        <v>79</v>
+      </c>
+      <c r="AKR2" t="n">
+        <v>74</v>
+      </c>
+      <c r="AKS2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AKT2" t="n">
+        <v>77</v>
+      </c>
+      <c r="AKU2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AKV2" t="n">
+        <v>62</v>
+      </c>
+      <c r="AKW2" t="n">
+        <v>62</v>
+      </c>
+      <c r="AKX2" t="n">
+        <v>31</v>
+      </c>
+      <c r="AKY2" t="n">
         <v>78</v>
       </c>
-      <c r="AKO2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AKP2" t="n">
-        <v>74</v>
-      </c>
-      <c r="AKQ2" t="n">
-        <v>71</v>
-      </c>
-      <c r="AKR2" t="n">
-        <v>73</v>
-      </c>
-      <c r="AKS2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AKT2" t="n">
-        <v>68</v>
-      </c>
-      <c r="AKU2" t="n">
-        <v>64</v>
-      </c>
-      <c r="AKV2" t="n">
-        <v>64</v>
-      </c>
-      <c r="AKW2" t="n">
-        <v>64</v>
-      </c>
-      <c r="AKX2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AKY2" t="n">
-        <v>75</v>
-      </c>
       <c r="AKZ2" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="ALA2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="ALB2" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="ALC2" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="ALD2" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="ALE2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="ALF2" t="n">
         <v>9</v>
@@ -8908,10 +8908,10 @@
         <v>5</v>
       </c>
       <c r="ALH2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="ALI2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="ALJ2" t="inlineStr">
         <is>
@@ -8919,13 +8919,13 @@
         </is>
       </c>
       <c r="ALK2" t="n">
-        <v>37814</v>
+        <v>30809</v>
       </c>
       <c r="ALL2" t="n">
-        <v>152997</v>
+        <v>192387</v>
       </c>
       <c r="ALM2" t="n">
-        <v>18734</v>
+        <v>161660</v>
       </c>
       <c r="ALN2" t="inlineStr">
         <is>
@@ -8933,115 +8933,115 @@
         </is>
       </c>
       <c r="ALO2" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="ALP2" t="n">
+        <v>85</v>
+      </c>
+      <c r="ALQ2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="ALR2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="ALS2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="ALT2" t="n">
+        <v>50</v>
+      </c>
+      <c r="ALU2" t="n">
+        <v>78</v>
+      </c>
+      <c r="ALV2" t="n">
+        <v>71</v>
+      </c>
+      <c r="ALW2" t="n">
+        <v>60</v>
+      </c>
+      <c r="ALX2" t="n">
+        <v>70</v>
+      </c>
+      <c r="ALY2" t="n">
+        <v>68</v>
+      </c>
+      <c r="ALZ2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AMA2" t="n">
+        <v>52</v>
+      </c>
+      <c r="AMB2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AMC2" t="n">
         <v>74</v>
       </c>
-      <c r="ALQ2" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="ALR2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="ALS2" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="ALT2" t="n">
-        <v>61</v>
-      </c>
-      <c r="ALU2" t="n">
-        <v>74</v>
-      </c>
-      <c r="ALV2" t="n">
-        <v>74</v>
-      </c>
-      <c r="ALW2" t="n">
-        <v>68</v>
-      </c>
-      <c r="ALX2" t="n">
-        <v>73</v>
-      </c>
-      <c r="ALY2" t="n">
+      <c r="AMD2" t="n">
+        <v>79</v>
+      </c>
+      <c r="AME2" t="n">
+        <v>82</v>
+      </c>
+      <c r="AMF2" t="n">
+        <v>84</v>
+      </c>
+      <c r="AMG2" t="n">
         <v>71</v>
       </c>
-      <c r="ALZ2" t="n">
-        <v>63</v>
-      </c>
-      <c r="AMA2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AMB2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AMC2" t="n">
-        <v>71</v>
-      </c>
-      <c r="AMD2" t="n">
-        <v>73</v>
-      </c>
-      <c r="AME2" t="n">
-        <v>73</v>
-      </c>
-      <c r="AMF2" t="n">
-        <v>74</v>
-      </c>
-      <c r="AMG2" t="n">
-        <v>75</v>
-      </c>
       <c r="AMH2" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AMI2" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AMJ2" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AMK2" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AML2" t="n">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AMM2" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AMN2" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AMO2" t="n">
         <v>30</v>
       </c>
       <c r="AMP2" t="n">
+        <v>74</v>
+      </c>
+      <c r="AMQ2" t="n">
+        <v>58</v>
+      </c>
+      <c r="AMR2" t="n">
         <v>72</v>
       </c>
-      <c r="AMQ2" t="n">
-        <v>71</v>
-      </c>
-      <c r="AMR2" t="n">
-        <v>73</v>
-      </c>
       <c r="AMS2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AMT2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AMU2" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AMV2" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AMW2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AMX2" t="n">
         <v>14</v>
@@ -9050,7 +9050,7 @@
         <v>11</v>
       </c>
       <c r="AMZ2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="ANA2" t="inlineStr">
         <is>
